--- a/biology/Biologie cellulaire et moléculaire/MERTK/MERTK.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/MERTK/MERTK.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le MERTK (pour « myeloid-epithelial-reproductive tyrosine kinase ») est une protéine à type de récepteur à activité tyrosine kinase. Son gène est le MERTK situé sur le chromosome 2 humain.
 </t>
@@ -511,9 +523,11 @@
           <t>Rôles</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est activé par le GAS6[5]. Il facilite la phagocytose des cellules en apoptose[6] et intervient dans la cicatrisation, en particulier du muscle cardiaque après un infarctus[7]. Un déficit en cette protéine favorise l'apoptose et accélère la formation de l'athérome[8]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est activé par le GAS6. Il facilite la phagocytose des cellules en apoptose et intervient dans la cicatrisation, en particulier du muscle cardiaque après un infarctus. Un déficit en cette protéine favorise l'apoptose et accélère la formation de l'athérome. 
 </t>
         </is>
       </c>
